--- a/Reonomy/Output.xlsx
+++ b/Reonomy/Output.xlsx
@@ -62,6 +62,39 @@
     <x:t>160 Auburn Ave, Buffalo, NY 14213</x:t>
   </x:si>
   <x:si>
+    <x:t>Michael Meyers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Executive Vice President-Director Of Employee Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-214-720-6669 | 1-952-221-7839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mmeyers@weitzmangroup.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3102 Maple Ave Ste 500, Dallas, TX 75201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jupiter rd, plano, TX 75074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joe Lea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manager Of Client Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-512-826-3780 | 1-214-325-5801 | 1-409-444-0427 | 713-376-2091 | 713-294-1648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bll4298@hotmail.com | joe.lea@bellatlantic.net | j.lea@sbcglobal.net | joe.lea@fossilgroup.com | joe.lea@ferguson.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Po Box 579, Marshall, TX 75671</x:t>
+  </x:si>
+  <x:si>
     <x:t>Gregory D Willbanks</x:t>
   </x:si>
   <x:si>
@@ -107,6 +140,9 @@
     <x:t>2920 Riverby Rd Ste 500, Houston, TX 77020</x:t>
   </x:si>
   <x:si>
+    <x:t>Carroll G Willbankjs</x:t>
+  </x:si>
+  <x:si>
     <x:t>Napier Lanham</x:t>
   </x:si>
   <x:si>
@@ -117,39 +153,6 @@
   </x:si>
   <x:si>
     <x:t>34 Curtis Ave, Somerville, MA 02144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael Meyers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Executive Vice President-Director Of Employee Development</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-214-720-6669 | 1-952-221-7839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mmeyers@weitzmangroup.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3102 Maple Ave Ste 500, Dallas, TX 75201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jupiter rd, plano, TX 75074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joe Lea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manager Of Client Development</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-512-826-3780 | 1-214-325-5801 | 1-409-444-0427 | 713-376-2091 | 713-294-1648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bll4298@hotmail.com | joe.lea@bellatlantic.net | j.lea@sbcglobal.net | joe.lea@fossilgroup.com | joe.lea@ferguson.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Po Box 579, Marshall, TX 75671</x:t>
   </x:si>
   <x:si>
     <x:t>Greg L Colchin</x:t>
@@ -618,102 +621,196 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>39</x:v>
+      <x:c r="E15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Reonomy/Output.xlsx
+++ b/Reonomy/Output.xlsx
@@ -62,6 +62,63 @@
     <x:t>160 Auburn Ave, Buffalo, NY 14213</x:t>
   </x:si>
   <x:si>
+    <x:t>Gregory D Willbanks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Via Teal 3.0, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>636-332-2584 | 1-314-398-1760 | 1-636-332-2584 | 636-639-1869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gregory.willbanks@excite.com | gregw2916@msn.com | corvette@worldnet.att.com | cwillbanks@raypak.com | gregw@willbanksinc.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115 Crimson Oaks, Lake St Louis, MO 63367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2811 maple ave, dallas, TX 75201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Britt Schmidt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Via Teal 2.0, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713-600-9400 | 1-713-806-6100 | 713-256-5395 | 713-806-6100 | 713-722-8711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>davidschmidty11@gmail.com | todd@allendorph.com | bschmidt@tealsystem.com | bschmidt@caminternational.org</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2606 W County Rd 130, Midland, TX 79706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harvey Powers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1-713-458-0598 | 713-458-0598 | 713-432-1448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>harvey@p23.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2920 Riverby Rd Ste 500, Houston, TX 77020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Napier Lanham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210-226-1914 | 210-288-2860 | 210-387-3629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>albert.napier@aol.com | lnapier@benefitfocus.com | lanham.napier@ipsoft.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 Curtis Ave, Somerville, MA 02144</x:t>
+  </x:si>
+  <x:si>
     <x:t>Michael Meyers</x:t>
   </x:si>
   <x:si>
@@ -93,66 +150,6 @@
   </x:si>
   <x:si>
     <x:t>Po Box 579, Marshall, TX 75671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gregory D Willbanks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Via Teal 3.0, LLC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>636-332-2584 | 1-314-398-1760 | 1-636-332-2584 | 636-639-1869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gregory.willbanks@excite.com | gregw2916@msn.com | corvette@worldnet.att.com | cwillbanks@raypak.com | gregw@willbanksinc.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 Crimson Oaks, Lake St Louis, MO 63367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2811 maple ave, dallas, TX 75201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Britt Schmidt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Via Teal 2.0, LLC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713-600-9400 | 1-713-806-6100 | 713-256-5395 | 713-806-6100 | 713-722-8711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>davidschmidty11@gmail.com | todd@allendorph.com | bschmidt@tealsystem.com | bschmidt@caminternational.org</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2606 W County Rd 130, Midland, TX 79706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Harvey Powers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-713-458-0598 | 713-458-0598 | 713-432-1448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>harvey@p23.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2920 Riverby Rd Ste 500, Houston, TX 77020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carroll G Willbankjs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Napier Lanham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210-226-1914 | 210-288-2860 | 210-387-3629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>albert.napier@aol.com | lnapier@benefitfocus.com | lanham.napier@ipsoft.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 Curtis Ave, Somerville, MA 02144</x:t>
   </x:si>
   <x:si>
     <x:t>Greg L Colchin</x:t>
@@ -621,196 +618,102 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
